--- a/Facility_Staffing_Combined.xlsx
+++ b/Facility_Staffing_Combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C097E90A-0DD6-44DC-83E9-5B578F59AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A70477E-54D2-434F-BC94-F8D8BB237353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28545" yWindow="15480" windowWidth="16410" windowHeight="11295" xr2:uid="{0B339019-6CC6-4650-AC0A-9ED3E400C083}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{0B339019-6CC6-4650-AC0A-9ED3E400C083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,5 +2674,227 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{290A9256-DC15-46CF-A6E5-BB06CCE0323F}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!B2:J2</xm:f>
+              <xm:sqref>M2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B3:J3</xm:f>
+              <xm:sqref>M3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B4:J4</xm:f>
+              <xm:sqref>M4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B5:J5</xm:f>
+              <xm:sqref>M5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B6:J6</xm:f>
+              <xm:sqref>M6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B7:J7</xm:f>
+              <xm:sqref>M7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B8:J8</xm:f>
+              <xm:sqref>M8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B9:J9</xm:f>
+              <xm:sqref>M9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B10:J10</xm:f>
+              <xm:sqref>M10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B11:J11</xm:f>
+              <xm:sqref>M11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B12:J12</xm:f>
+              <xm:sqref>M12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B13:J13</xm:f>
+              <xm:sqref>M13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B14:J14</xm:f>
+              <xm:sqref>M14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B15:J15</xm:f>
+              <xm:sqref>M15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B16:J16</xm:f>
+              <xm:sqref>M16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B17:J17</xm:f>
+              <xm:sqref>M17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B18:J18</xm:f>
+              <xm:sqref>M18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B19:J19</xm:f>
+              <xm:sqref>M19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B20:J20</xm:f>
+              <xm:sqref>M20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B21:J21</xm:f>
+              <xm:sqref>M21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B22:J22</xm:f>
+              <xm:sqref>M22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B23:J23</xm:f>
+              <xm:sqref>M23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B24:J24</xm:f>
+              <xm:sqref>M24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B25:J25</xm:f>
+              <xm:sqref>M25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B26:J26</xm:f>
+              <xm:sqref>M26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B27:J27</xm:f>
+              <xm:sqref>M27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B28:J28</xm:f>
+              <xm:sqref>M28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B29:J29</xm:f>
+              <xm:sqref>M29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B30:J30</xm:f>
+              <xm:sqref>M30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B31:J31</xm:f>
+              <xm:sqref>M31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B32:J32</xm:f>
+              <xm:sqref>M32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B33:J33</xm:f>
+              <xm:sqref>M33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B34:J34</xm:f>
+              <xm:sqref>M34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B35:J35</xm:f>
+              <xm:sqref>M35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B36:J36</xm:f>
+              <xm:sqref>M36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B37:J37</xm:f>
+              <xm:sqref>M37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B38:J38</xm:f>
+              <xm:sqref>M38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B39:J39</xm:f>
+              <xm:sqref>M39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B40:J40</xm:f>
+              <xm:sqref>M40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B41:J41</xm:f>
+              <xm:sqref>M41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B42:J42</xm:f>
+              <xm:sqref>M42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B43:J43</xm:f>
+              <xm:sqref>M43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B44:J44</xm:f>
+              <xm:sqref>M44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B45:J45</xm:f>
+              <xm:sqref>M45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B46:J46</xm:f>
+              <xm:sqref>M46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B47:J47</xm:f>
+              <xm:sqref>M47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B48:J48</xm:f>
+              <xm:sqref>M48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B49:J49</xm:f>
+              <xm:sqref>M49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B50:J50</xm:f>
+              <xm:sqref>M50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B51:J51</xm:f>
+              <xm:sqref>M51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B52:J52</xm:f>
+              <xm:sqref>M52</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Facility_Staffing_Combined.xlsx
+++ b/Facility_Staffing_Combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A70477E-54D2-434F-BC94-F8D8BB237353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826337CB-AAB7-47B3-80AD-9FEBBE0E7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{0B339019-6CC6-4650-AC0A-9ED3E400C083}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Q1 2021</t>
   </si>
@@ -66,162 +66,6 @@
   </si>
   <si>
     <t>Staff Increase/Decrease</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>State</t>
   </si>
   <si>
     <t>Employee Average</t>
@@ -579,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72183B1-1C58-4195-9159-864865B1E67C}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,2081 +438,1925 @@
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>18523</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19233</v>
+      </c>
+      <c r="C2">
+        <v>19399</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19423</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16132</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20042</v>
+      </c>
+      <c r="G2" s="1">
+        <v>19607</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20296</v>
+      </c>
+      <c r="I2" s="1">
+        <v>20494</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J42" si="0">(A2+B2+C2+D2+E2+F2+G2+H2+I2)/9</f>
+        <v>19238.777777777777</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K33" si="1">(I2-A2)/I2</f>
+        <v>9.6174490094661849E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>468</v>
       </c>
-      <c r="C2">
+      <c r="B3">
         <v>519</v>
       </c>
-      <c r="D2">
+      <c r="C3">
         <v>500</v>
       </c>
-      <c r="E2">
+      <c r="D3">
         <v>537</v>
       </c>
-      <c r="F2">
+      <c r="E3">
         <v>634</v>
       </c>
-      <c r="G2">
+      <c r="F3">
         <v>663</v>
       </c>
-      <c r="H2">
+      <c r="G3">
         <v>659</v>
       </c>
-      <c r="I2">
+      <c r="H3">
         <v>631</v>
       </c>
-      <c r="J2">
+      <c r="I3">
         <v>625</v>
       </c>
-      <c r="K2" s="3">
-        <f>(B2+C2+D2+E2+F2+G2+H2+I2+J2)/9</f>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
         <v>581.77777777777783</v>
       </c>
-      <c r="L2" s="2">
-        <f>(J2-B2)/J2</f>
+      <c r="K3" s="2">
+        <f t="shared" si="1"/>
         <v>0.25119999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18523</v>
-      </c>
-      <c r="C3" s="1">
-        <v>19233</v>
-      </c>
-      <c r="D3">
-        <v>19399</v>
-      </c>
-      <c r="E3" s="1">
-        <v>19423</v>
-      </c>
-      <c r="F3" s="1">
-        <v>16132</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20042</v>
-      </c>
-      <c r="H3" s="1">
-        <v>19607</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20296</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20494</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K42" si="0">(B3+C3+D3+E3+F3+G3+H3+I3+J3)/9</f>
-        <v>19238.777777777777</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L52" si="1">(J3-B3)/J3</f>
-        <v>9.6174490094661849E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>13620</v>
       </c>
       <c r="B4" s="1">
-        <v>13620</v>
-      </c>
-      <c r="C4" s="1">
         <v>14286</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>14870</v>
       </c>
+      <c r="D4" s="1">
+        <v>14766</v>
+      </c>
       <c r="E4" s="1">
-        <v>14766</v>
+        <v>14364</v>
       </c>
       <c r="F4" s="1">
-        <v>14364</v>
+        <v>15112</v>
       </c>
       <c r="G4" s="1">
-        <v>15112</v>
+        <v>15368</v>
       </c>
       <c r="H4" s="1">
-        <v>15368</v>
+        <v>15467</v>
       </c>
       <c r="I4" s="1">
-        <v>15467</v>
-      </c>
-      <c r="J4" s="1">
         <v>15672</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>14836.111111111111</v>
       </c>
-      <c r="L4" s="2">
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
         <v>0.13093415007656967</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10231</v>
       </c>
       <c r="B5" s="1">
-        <v>10231</v>
-      </c>
-      <c r="C5" s="1">
         <v>10117</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>10305</v>
       </c>
+      <c r="D5" s="1">
+        <v>10619</v>
+      </c>
       <c r="E5" s="1">
-        <v>10619</v>
+        <v>10746</v>
       </c>
       <c r="F5" s="1">
-        <v>10746</v>
+        <v>10482</v>
       </c>
       <c r="G5" s="1">
-        <v>10482</v>
+        <v>10832</v>
       </c>
       <c r="H5" s="1">
-        <v>10832</v>
+        <v>10948</v>
       </c>
       <c r="I5" s="1">
-        <v>10948</v>
-      </c>
-      <c r="J5" s="1">
         <v>11421</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>10633.444444444445</v>
       </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
         <v>0.10419402854391034</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>83713</v>
       </c>
       <c r="B6" s="1">
-        <v>83713</v>
+        <v>88106</v>
       </c>
       <c r="C6" s="1">
-        <v>88106</v>
+        <v>90442</v>
       </c>
       <c r="D6" s="1">
-        <v>90442</v>
+        <v>90305</v>
       </c>
       <c r="E6" s="1">
-        <v>90305</v>
+        <v>90544</v>
       </c>
       <c r="F6" s="1">
-        <v>90544</v>
+        <v>92827</v>
       </c>
       <c r="G6" s="1">
-        <v>92827</v>
+        <v>91843</v>
       </c>
       <c r="H6" s="1">
-        <v>91843</v>
+        <v>94031</v>
       </c>
       <c r="I6" s="1">
-        <v>94031</v>
-      </c>
-      <c r="J6" s="1">
         <v>97632</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>91049.222222222219</v>
       </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>0.1425659619796788</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>13227</v>
       </c>
       <c r="B7" s="1">
-        <v>13227</v>
-      </c>
-      <c r="C7" s="1">
         <v>13681</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>14173</v>
       </c>
+      <c r="D7" s="1">
+        <v>13996</v>
+      </c>
       <c r="E7" s="1">
-        <v>13996</v>
+        <v>14180</v>
       </c>
       <c r="F7" s="1">
-        <v>14180</v>
+        <v>14148</v>
       </c>
       <c r="G7" s="1">
-        <v>14148</v>
+        <v>14302</v>
       </c>
       <c r="H7" s="1">
-        <v>14302</v>
+        <v>14259</v>
       </c>
       <c r="I7" s="1">
-        <v>14259</v>
-      </c>
-      <c r="J7" s="1">
         <v>14462</v>
       </c>
-      <c r="K7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>14047.555555555555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>8.5396210759231095E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>17823</v>
       </c>
       <c r="B8" s="1">
-        <v>17823</v>
-      </c>
-      <c r="C8" s="1">
         <v>18069</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>18657</v>
       </c>
+      <c r="D8" s="1">
+        <v>18801</v>
+      </c>
       <c r="E8" s="1">
-        <v>18801</v>
+        <v>18939</v>
       </c>
       <c r="F8" s="1">
-        <v>18939</v>
+        <v>18968</v>
       </c>
       <c r="G8" s="1">
-        <v>18968</v>
+        <v>19302</v>
       </c>
       <c r="H8" s="1">
-        <v>19302</v>
+        <v>19653</v>
       </c>
       <c r="I8" s="1">
-        <v>19653</v>
-      </c>
-      <c r="J8" s="1">
         <v>19836</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>18894.222222222223</v>
       </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>0.10148215366001211</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1910</v>
       </c>
       <c r="B9" s="1">
-        <v>1910</v>
-      </c>
-      <c r="C9" s="1">
         <v>1946</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>1991</v>
       </c>
+      <c r="D9" s="1">
+        <v>2001</v>
+      </c>
       <c r="E9" s="1">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="F9" s="1">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="G9" s="1">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="1">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="I9" s="1">
-        <v>1980</v>
-      </c>
-      <c r="J9" s="1">
         <v>1985</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>1976.2222222222222</v>
       </c>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>3.7783375314861464E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3276</v>
       </c>
       <c r="B10" s="1">
-        <v>3276</v>
-      </c>
-      <c r="C10" s="1">
         <v>3269</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>3455</v>
       </c>
+      <c r="D10" s="1">
+        <v>3448</v>
+      </c>
       <c r="E10" s="1">
-        <v>3448</v>
+        <v>3466</v>
       </c>
       <c r="F10" s="1">
-        <v>3466</v>
+        <v>3526</v>
       </c>
       <c r="G10" s="1">
-        <v>3526</v>
+        <v>3592</v>
       </c>
       <c r="H10" s="1">
         <v>3592</v>
       </c>
       <c r="I10" s="1">
-        <v>3592</v>
-      </c>
-      <c r="J10" s="1">
         <v>3656</v>
       </c>
-      <c r="K10" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>3475.5555555555557</v>
       </c>
-      <c r="L10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>0.10393873085339168</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>63887</v>
       </c>
       <c r="B11" s="1">
-        <v>63887</v>
-      </c>
-      <c r="C11" s="1">
         <v>63959</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>65770</v>
       </c>
+      <c r="D11" s="1">
+        <v>66629</v>
+      </c>
       <c r="E11" s="1">
-        <v>66629</v>
+        <v>66243</v>
       </c>
       <c r="F11" s="1">
-        <v>66243</v>
+        <v>65641</v>
       </c>
       <c r="G11" s="1">
-        <v>65641</v>
+        <v>68753</v>
       </c>
       <c r="H11" s="1">
-        <v>68753</v>
+        <v>69670</v>
       </c>
       <c r="I11" s="1">
-        <v>69670</v>
-      </c>
-      <c r="J11" s="1">
         <v>71790</v>
       </c>
-      <c r="K11" s="3">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>66926.888888888891</v>
       </c>
-      <c r="L11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>0.11008497005153921</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>26814</v>
       </c>
       <c r="B12" s="1">
-        <v>26814</v>
-      </c>
-      <c r="C12" s="1">
         <v>26968</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>27781</v>
       </c>
+      <c r="D12" s="1">
+        <v>27047</v>
+      </c>
       <c r="E12" s="1">
-        <v>27047</v>
+        <v>26793</v>
       </c>
       <c r="F12" s="1">
-        <v>26793</v>
+        <v>27614</v>
       </c>
       <c r="G12" s="1">
-        <v>27614</v>
+        <v>27409</v>
       </c>
       <c r="H12" s="1">
-        <v>27409</v>
+        <v>28854</v>
       </c>
       <c r="I12" s="1">
-        <v>28854</v>
-      </c>
-      <c r="J12" s="1">
         <v>29399</v>
       </c>
-      <c r="K12" s="3">
+      <c r="J12" s="3">
         <f t="shared" si="0"/>
         <v>27631</v>
       </c>
-      <c r="L12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>8.7928160821796664E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3181</v>
       </c>
       <c r="B13" s="1">
-        <v>3181</v>
-      </c>
-      <c r="C13" s="1">
         <v>3274</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>3191</v>
       </c>
+      <c r="D13" s="1">
+        <v>3264</v>
+      </c>
       <c r="E13" s="1">
-        <v>3264</v>
+        <v>3183</v>
       </c>
       <c r="F13" s="1">
-        <v>3183</v>
+        <v>3042</v>
       </c>
       <c r="G13" s="1">
-        <v>3042</v>
+        <v>2993</v>
       </c>
       <c r="H13" s="1">
-        <v>2993</v>
+        <v>3177</v>
       </c>
       <c r="I13" s="1">
-        <v>3177</v>
-      </c>
-      <c r="J13" s="1">
         <v>3132</v>
       </c>
-      <c r="K13" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
         <v>3159.6666666666665</v>
       </c>
-      <c r="L13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>-1.5644955300127713E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>19036</v>
       </c>
       <c r="B14" s="1">
-        <v>19036</v>
-      </c>
-      <c r="C14" s="1">
         <v>19659</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>20204</v>
       </c>
+      <c r="D14" s="1">
+        <v>19017</v>
+      </c>
       <c r="E14" s="1">
-        <v>19017</v>
+        <v>19943</v>
       </c>
       <c r="F14" s="1">
-        <v>19943</v>
+        <v>19898</v>
       </c>
       <c r="G14" s="1">
-        <v>19898</v>
+        <v>19976</v>
       </c>
       <c r="H14" s="1">
-        <v>19976</v>
+        <v>19638</v>
       </c>
       <c r="I14" s="1">
-        <v>19638</v>
-      </c>
-      <c r="J14" s="1">
         <v>19803</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="0"/>
         <v>19686</v>
       </c>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>3.8731505327475636E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3585</v>
       </c>
       <c r="B15" s="1">
-        <v>3585</v>
-      </c>
-      <c r="C15" s="1">
         <v>3677</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>3648</v>
       </c>
+      <c r="D15" s="1">
+        <v>3576</v>
+      </c>
       <c r="E15" s="1">
-        <v>3576</v>
+        <v>3564</v>
       </c>
       <c r="F15" s="1">
-        <v>3564</v>
+        <v>3683</v>
       </c>
       <c r="G15" s="1">
-        <v>3683</v>
+        <v>3593</v>
       </c>
       <c r="H15" s="1">
-        <v>3593</v>
+        <v>3651</v>
       </c>
       <c r="I15" s="1">
-        <v>3651</v>
-      </c>
-      <c r="J15" s="1">
         <v>3944</v>
       </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="0"/>
         <v>3657.8888888888887</v>
       </c>
-      <c r="L15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>9.1024340770791079E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>52141</v>
       </c>
       <c r="B16" s="1">
-        <v>52141</v>
-      </c>
-      <c r="C16" s="1">
         <v>52272</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>56360</v>
       </c>
+      <c r="D16" s="1">
+        <v>55940</v>
+      </c>
       <c r="E16" s="1">
-        <v>55940</v>
+        <v>57155</v>
       </c>
       <c r="F16" s="1">
-        <v>57155</v>
+        <v>57488</v>
       </c>
       <c r="G16" s="1">
-        <v>57488</v>
+        <v>58623</v>
       </c>
       <c r="H16" s="1">
-        <v>58623</v>
+        <v>59274</v>
       </c>
       <c r="I16" s="1">
-        <v>59274</v>
-      </c>
-      <c r="J16" s="1">
         <v>59909</v>
       </c>
-      <c r="K16" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="0"/>
         <v>56573.555555555555</v>
       </c>
-      <c r="L16" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>0.12966332270610426</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>31955</v>
       </c>
       <c r="B17" s="1">
-        <v>31955</v>
-      </c>
-      <c r="C17" s="1">
         <v>32757</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>33912</v>
       </c>
+      <c r="D17" s="1">
+        <v>34296</v>
+      </c>
       <c r="E17" s="1">
-        <v>34296</v>
+        <v>33971</v>
       </c>
       <c r="F17" s="1">
-        <v>33971</v>
+        <v>34110</v>
       </c>
       <c r="G17" s="1">
-        <v>34110</v>
+        <v>34537</v>
       </c>
       <c r="H17" s="1">
-        <v>34537</v>
+        <v>34512</v>
       </c>
       <c r="I17" s="1">
-        <v>34512</v>
-      </c>
-      <c r="J17" s="1">
         <v>35111</v>
       </c>
-      <c r="K17" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="0"/>
         <v>33906.777777777781</v>
       </c>
-      <c r="L17" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>8.9886360399874687E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13903</v>
       </c>
       <c r="B18" s="1">
-        <v>13903</v>
-      </c>
-      <c r="C18" s="1">
         <v>14330</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>14768</v>
       </c>
+      <c r="D18" s="1">
+        <v>14479</v>
+      </c>
       <c r="E18" s="1">
-        <v>14479</v>
+        <v>14539</v>
       </c>
       <c r="F18" s="1">
+        <v>14665</v>
+      </c>
+      <c r="G18" s="1">
         <v>14539</v>
       </c>
-      <c r="G18" s="1">
-        <v>14665</v>
-      </c>
       <c r="H18" s="1">
-        <v>14539</v>
+        <v>14330</v>
       </c>
       <c r="I18" s="1">
-        <v>14330</v>
-      </c>
-      <c r="J18" s="1">
         <v>14676</v>
       </c>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
         <f t="shared" si="0"/>
         <v>14469.888888888889</v>
       </c>
-      <c r="L18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>5.2671027527936766E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19024</v>
       </c>
       <c r="B19" s="1">
-        <v>19024</v>
-      </c>
-      <c r="C19" s="1">
         <v>19811</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>20228</v>
       </c>
+      <c r="D19" s="1">
+        <v>20180</v>
+      </c>
       <c r="E19" s="1">
-        <v>20180</v>
+        <v>19903</v>
       </c>
       <c r="F19" s="1">
-        <v>19903</v>
+        <v>20114</v>
       </c>
       <c r="G19" s="1">
-        <v>20114</v>
+        <v>20462</v>
       </c>
       <c r="H19" s="1">
-        <v>20462</v>
+        <v>20483</v>
       </c>
       <c r="I19" s="1">
-        <v>20483</v>
-      </c>
-      <c r="J19" s="1">
         <v>20422</v>
       </c>
-      <c r="K19" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="0"/>
         <v>20069.666666666668</v>
       </c>
-      <c r="L19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>6.845558711193811E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20902</v>
       </c>
       <c r="B20" s="1">
-        <v>20902</v>
-      </c>
-      <c r="C20" s="1">
         <v>21351</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>20988</v>
       </c>
+      <c r="D20" s="1">
+        <v>21714</v>
+      </c>
       <c r="E20" s="1">
-        <v>21714</v>
+        <v>21851</v>
       </c>
       <c r="F20" s="1">
-        <v>21851</v>
+        <v>22045</v>
       </c>
       <c r="G20" s="1">
-        <v>22045</v>
+        <v>22193</v>
       </c>
       <c r="H20" s="1">
-        <v>22193</v>
+        <v>22570</v>
       </c>
       <c r="I20" s="1">
-        <v>22570</v>
-      </c>
-      <c r="J20" s="1">
         <v>22555</v>
       </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
         <f t="shared" si="0"/>
         <v>21796.555555555555</v>
       </c>
-      <c r="L20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>7.3287519397029488E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>29866</v>
       </c>
       <c r="B21" s="1">
-        <v>29866</v>
-      </c>
-      <c r="C21" s="1">
         <v>30597</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>31567</v>
       </c>
+      <c r="D21" s="1">
+        <v>31609</v>
+      </c>
       <c r="E21" s="1">
-        <v>31609</v>
+        <v>31441</v>
       </c>
       <c r="F21" s="1">
-        <v>31441</v>
+        <v>31856</v>
       </c>
       <c r="G21" s="1">
-        <v>31856</v>
+        <v>31798</v>
       </c>
       <c r="H21" s="1">
-        <v>31798</v>
+        <v>32431</v>
       </c>
       <c r="I21" s="1">
-        <v>32431</v>
-      </c>
-      <c r="J21" s="1">
         <v>32586</v>
       </c>
-      <c r="K21" s="3">
+      <c r="J21" s="3">
         <f t="shared" si="0"/>
         <v>31527.888888888891</v>
       </c>
-      <c r="L21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>8.3471429448229301E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19785</v>
       </c>
       <c r="B22" s="1">
-        <v>19785</v>
-      </c>
-      <c r="C22" s="1">
         <v>20527</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>20844</v>
       </c>
+      <c r="D22" s="1">
+        <v>21068</v>
+      </c>
       <c r="E22" s="1">
-        <v>21068</v>
+        <v>21281</v>
       </c>
       <c r="F22" s="1">
-        <v>21281</v>
+        <v>21474</v>
       </c>
       <c r="G22" s="1">
-        <v>21474</v>
+        <v>21859</v>
       </c>
       <c r="H22" s="1">
-        <v>21859</v>
+        <v>22132</v>
       </c>
       <c r="I22" s="1">
-        <v>22132</v>
-      </c>
-      <c r="J22" s="1">
         <v>22486</v>
       </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
         <f t="shared" si="0"/>
         <v>21272.888888888891</v>
       </c>
-      <c r="L22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>0.12011918527083519</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4865</v>
       </c>
       <c r="B23" s="1">
-        <v>4865</v>
-      </c>
-      <c r="C23" s="1">
         <v>4976</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>4935</v>
       </c>
+      <c r="D23" s="1">
+        <v>4706</v>
+      </c>
       <c r="E23" s="1">
-        <v>4706</v>
+        <v>4670</v>
       </c>
       <c r="F23" s="1">
-        <v>4670</v>
+        <v>4863</v>
       </c>
       <c r="G23" s="1">
-        <v>4863</v>
+        <v>4967</v>
       </c>
       <c r="H23" s="1">
-        <v>4967</v>
+        <v>4910</v>
       </c>
       <c r="I23" s="1">
-        <v>4910</v>
-      </c>
-      <c r="J23" s="1">
         <v>5092</v>
       </c>
-      <c r="K23" s="3">
+      <c r="J23" s="3">
         <f t="shared" si="0"/>
         <v>4887.1111111111113</v>
       </c>
-      <c r="L23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>4.4579732914375489E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30334</v>
       </c>
       <c r="B24" s="1">
-        <v>30334</v>
-      </c>
-      <c r="C24" s="1">
         <v>30824</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>31237</v>
       </c>
+      <c r="D24" s="1">
+        <v>29785</v>
+      </c>
       <c r="E24" s="1">
-        <v>29785</v>
+        <v>31828</v>
       </c>
       <c r="F24" s="1">
-        <v>31828</v>
+        <v>32048</v>
       </c>
       <c r="G24" s="1">
-        <v>32048</v>
+        <v>32561</v>
       </c>
       <c r="H24" s="1">
-        <v>32561</v>
+        <v>32825</v>
       </c>
       <c r="I24" s="1">
-        <v>32825</v>
-      </c>
-      <c r="J24" s="1">
         <v>33370</v>
       </c>
-      <c r="K24" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="0"/>
         <v>31645.777777777777</v>
       </c>
-      <c r="L24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
         <v>9.0979922085705725E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>19600</v>
       </c>
       <c r="B25" s="1">
-        <v>19600</v>
-      </c>
-      <c r="C25" s="1">
         <v>20194</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>20245</v>
       </c>
+      <c r="D25" s="1">
+        <v>18654</v>
+      </c>
       <c r="E25" s="1">
-        <v>18654</v>
+        <v>19704</v>
       </c>
       <c r="F25" s="1">
-        <v>19704</v>
+        <v>19380</v>
       </c>
       <c r="G25" s="1">
-        <v>19380</v>
+        <v>19624</v>
       </c>
       <c r="H25" s="1">
-        <v>19624</v>
+        <v>19583</v>
       </c>
       <c r="I25" s="1">
-        <v>19583</v>
-      </c>
-      <c r="J25" s="1">
         <v>19942</v>
       </c>
-      <c r="K25" s="3">
+      <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>19658.444444444445</v>
       </c>
-      <c r="L25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="1"/>
         <v>1.7149734229264867E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>29130</v>
       </c>
       <c r="B26" s="1">
-        <v>29130</v>
-      </c>
-      <c r="C26" s="1">
         <v>29608</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>31431</v>
       </c>
+      <c r="D26" s="1">
+        <v>30915</v>
+      </c>
       <c r="E26" s="1">
-        <v>30915</v>
+        <v>31408</v>
       </c>
       <c r="F26" s="1">
-        <v>31408</v>
+        <v>32849</v>
       </c>
       <c r="G26" s="1">
-        <v>32849</v>
+        <v>33203</v>
       </c>
       <c r="H26" s="1">
-        <v>33203</v>
+        <v>33677</v>
       </c>
       <c r="I26" s="1">
-        <v>33677</v>
-      </c>
-      <c r="J26" s="1">
         <v>33468</v>
       </c>
-      <c r="K26" s="3">
+      <c r="J26" s="3">
         <f t="shared" si="0"/>
         <v>31743.222222222223</v>
       </c>
-      <c r="L26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
         <v>0.12961634994621729</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>13027</v>
       </c>
       <c r="B27" s="1">
-        <v>13027</v>
-      </c>
-      <c r="C27" s="1">
         <v>13365</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>13447</v>
       </c>
+      <c r="D27" s="1">
+        <v>13613</v>
+      </c>
       <c r="E27" s="1">
-        <v>13613</v>
+        <v>13539</v>
       </c>
       <c r="F27" s="1">
-        <v>13539</v>
+        <v>13689</v>
       </c>
       <c r="G27" s="1">
-        <v>13689</v>
+        <v>13834</v>
       </c>
       <c r="H27" s="1">
-        <v>13834</v>
+        <v>13900</v>
       </c>
       <c r="I27" s="1">
-        <v>13900</v>
-      </c>
-      <c r="J27" s="1">
         <v>14139</v>
       </c>
-      <c r="K27" s="3">
+      <c r="J27" s="3">
         <f t="shared" si="0"/>
         <v>13617</v>
       </c>
-      <c r="L27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
         <v>7.864771200226324E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>36</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3151</v>
       </c>
       <c r="B28" s="1">
-        <v>3151</v>
-      </c>
-      <c r="C28" s="1">
         <v>3293</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <v>3239</v>
       </c>
+      <c r="D28" s="1">
+        <v>3142</v>
+      </c>
       <c r="E28" s="1">
-        <v>3142</v>
+        <v>3092</v>
       </c>
       <c r="F28" s="1">
-        <v>3092</v>
+        <v>3136</v>
       </c>
       <c r="G28" s="1">
-        <v>3136</v>
+        <v>3107</v>
       </c>
       <c r="H28" s="1">
-        <v>3107</v>
+        <v>3096</v>
       </c>
       <c r="I28" s="1">
-        <v>3096</v>
-      </c>
-      <c r="J28" s="1">
         <v>3172</v>
       </c>
-      <c r="K28" s="3">
+      <c r="J28" s="3">
         <f t="shared" si="0"/>
         <v>3158.6666666666665</v>
       </c>
-      <c r="L28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
         <v>6.6204287515762928E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28564</v>
       </c>
       <c r="B29" s="1">
-        <v>28564</v>
-      </c>
-      <c r="C29" s="1">
         <v>30205</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>31208</v>
       </c>
+      <c r="D29" s="1">
+        <v>31398</v>
+      </c>
       <c r="E29" s="1">
-        <v>31398</v>
+        <v>31580</v>
       </c>
       <c r="F29" s="1">
-        <v>31580</v>
+        <v>32078</v>
       </c>
       <c r="G29" s="1">
-        <v>32078</v>
+        <v>32018</v>
       </c>
       <c r="H29" s="1">
-        <v>32018</v>
+        <v>32321</v>
       </c>
       <c r="I29" s="1">
-        <v>32321</v>
-      </c>
-      <c r="J29" s="1">
         <v>32832</v>
       </c>
-      <c r="K29" s="3">
+      <c r="J29" s="3">
         <f t="shared" si="0"/>
         <v>31356</v>
       </c>
-      <c r="L29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="1"/>
         <v>0.12999512670565302</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>38</v>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4236</v>
       </c>
       <c r="B30" s="1">
-        <v>4236</v>
-      </c>
-      <c r="C30" s="1">
         <v>4398</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>4519</v>
       </c>
+      <c r="D30" s="1">
+        <v>4392</v>
+      </c>
       <c r="E30" s="1">
-        <v>4392</v>
+        <v>4497</v>
       </c>
       <c r="F30" s="1">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="G30" s="1">
-        <v>4496</v>
+        <v>4515</v>
       </c>
       <c r="H30" s="1">
-        <v>4515</v>
+        <v>4501</v>
       </c>
       <c r="I30" s="1">
-        <v>4501</v>
-      </c>
-      <c r="J30" s="1">
         <v>4457</v>
       </c>
-      <c r="K30" s="3">
+      <c r="J30" s="3">
         <f t="shared" si="0"/>
         <v>4445.666666666667</v>
       </c>
-      <c r="L30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="1"/>
         <v>4.9584922593672871E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>9098</v>
       </c>
       <c r="B31" s="1">
-        <v>9098</v>
-      </c>
-      <c r="C31" s="1">
         <v>9192</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>9553</v>
       </c>
+      <c r="D31" s="1">
+        <v>9437</v>
+      </c>
       <c r="E31" s="1">
-        <v>9437</v>
+        <v>9330</v>
       </c>
       <c r="F31" s="1">
-        <v>9330</v>
+        <v>9328</v>
       </c>
       <c r="G31" s="1">
-        <v>9328</v>
+        <v>9506</v>
       </c>
       <c r="H31" s="1">
-        <v>9506</v>
+        <v>9384</v>
       </c>
       <c r="I31" s="1">
-        <v>9384</v>
-      </c>
-      <c r="J31" s="1">
         <v>9405</v>
       </c>
-      <c r="K31" s="3">
+      <c r="J31" s="3">
         <f t="shared" si="0"/>
         <v>9359.2222222222226</v>
       </c>
-      <c r="L31" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="1"/>
         <v>3.2642211589580007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>40</v>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>5322</v>
       </c>
       <c r="B32" s="1">
-        <v>5322</v>
-      </c>
-      <c r="C32" s="1">
         <v>5507</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>5527</v>
       </c>
+      <c r="D32" s="1">
+        <v>5479</v>
+      </c>
       <c r="E32" s="1">
-        <v>5479</v>
+        <v>5366</v>
       </c>
       <c r="F32" s="1">
-        <v>5366</v>
+        <v>5533</v>
       </c>
       <c r="G32" s="1">
-        <v>5533</v>
+        <v>5502</v>
       </c>
       <c r="H32" s="1">
-        <v>5502</v>
+        <v>5465</v>
       </c>
       <c r="I32" s="1">
-        <v>5465</v>
-      </c>
-      <c r="J32" s="1">
         <v>5662</v>
       </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
         <f t="shared" si="0"/>
         <v>5484.7777777777774</v>
       </c>
-      <c r="L32" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="1"/>
         <v>6.004945249028612E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>35152</v>
       </c>
       <c r="B33" s="1">
-        <v>35152</v>
-      </c>
-      <c r="C33" s="1">
         <v>35074</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>36267</v>
       </c>
+      <c r="D33" s="1">
+        <v>37142</v>
+      </c>
       <c r="E33" s="1">
-        <v>37142</v>
+        <v>37461</v>
       </c>
       <c r="F33" s="1">
-        <v>37461</v>
+        <v>37683</v>
       </c>
       <c r="G33" s="1">
-        <v>37683</v>
+        <v>37883</v>
       </c>
       <c r="H33" s="1">
-        <v>37883</v>
+        <v>38640</v>
       </c>
       <c r="I33" s="1">
-        <v>38640</v>
-      </c>
-      <c r="J33" s="1">
         <v>39427</v>
       </c>
-      <c r="K33" s="3">
+      <c r="J33" s="3">
         <f t="shared" si="0"/>
         <v>37192.111111111109</v>
       </c>
-      <c r="L33" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="1"/>
         <v>0.10842823445861972</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>4502</v>
       </c>
       <c r="B34" s="1">
-        <v>4502</v>
-      </c>
-      <c r="C34" s="1">
         <v>4679</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <v>4757</v>
       </c>
+      <c r="D34" s="1">
+        <v>4792</v>
+      </c>
       <c r="E34" s="1">
-        <v>4792</v>
+        <v>4886</v>
       </c>
       <c r="F34" s="1">
-        <v>4886</v>
+        <v>4917</v>
       </c>
       <c r="G34" s="1">
-        <v>4917</v>
+        <v>5015</v>
       </c>
       <c r="H34" s="1">
-        <v>5015</v>
+        <v>5052</v>
       </c>
       <c r="I34" s="1">
-        <v>5052</v>
-      </c>
-      <c r="J34" s="1">
         <v>5098</v>
       </c>
-      <c r="K34" s="3">
+      <c r="J34" s="3">
         <f t="shared" si="0"/>
         <v>4855.333333333333</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" si="1"/>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34:K52" si="2">(I34-A34)/I34</f>
         <v>0.1169085916045508</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4774</v>
       </c>
       <c r="B35" s="1">
-        <v>4774</v>
-      </c>
-      <c r="C35" s="1">
         <v>4840</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <v>5173</v>
       </c>
+      <c r="D35" s="1">
+        <v>5145</v>
+      </c>
       <c r="E35" s="1">
-        <v>5145</v>
+        <v>4987</v>
       </c>
       <c r="F35" s="1">
-        <v>4987</v>
+        <v>5134</v>
       </c>
       <c r="G35" s="1">
-        <v>5134</v>
+        <v>5203</v>
       </c>
       <c r="H35" s="1">
-        <v>5203</v>
+        <v>5354</v>
       </c>
       <c r="I35" s="1">
-        <v>5354</v>
-      </c>
-      <c r="J35" s="1">
         <v>5511</v>
       </c>
-      <c r="K35" s="3">
+      <c r="J35" s="3">
         <f t="shared" si="0"/>
         <v>5124.5555555555557</v>
       </c>
-      <c r="L35" s="2">
-        <f t="shared" si="1"/>
+      <c r="K35" s="2">
+        <f t="shared" si="2"/>
         <v>0.13373253493013973</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>86862</v>
       </c>
       <c r="B36" s="1">
-        <v>86862</v>
-      </c>
-      <c r="C36" s="1">
         <v>89242</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <v>91180</v>
       </c>
+      <c r="D36" s="1">
+        <v>91094</v>
+      </c>
       <c r="E36" s="1">
-        <v>91094</v>
+        <v>92388</v>
       </c>
       <c r="F36" s="1">
-        <v>92388</v>
+        <v>93555</v>
       </c>
       <c r="G36" s="1">
-        <v>93555</v>
+        <v>94116</v>
       </c>
       <c r="H36" s="1">
-        <v>94116</v>
+        <v>95251</v>
       </c>
       <c r="I36" s="1">
-        <v>95251</v>
-      </c>
-      <c r="J36" s="1">
         <v>96162</v>
       </c>
-      <c r="K36" s="3">
+      <c r="J36" s="3">
         <f t="shared" si="0"/>
         <v>92205.555555555562</v>
       </c>
-      <c r="L36" s="2">
-        <f t="shared" si="1"/>
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
         <v>9.6711798839458407E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>58717</v>
       </c>
       <c r="B37" s="1">
-        <v>58717</v>
-      </c>
-      <c r="C37" s="1">
         <v>60130</v>
       </c>
-      <c r="D37">
+      <c r="C37">
         <v>61588</v>
       </c>
+      <c r="D37" s="1">
+        <v>62098</v>
+      </c>
       <c r="E37" s="1">
-        <v>62098</v>
+        <v>63301</v>
       </c>
       <c r="F37" s="1">
-        <v>63301</v>
+        <v>62616</v>
       </c>
       <c r="G37" s="1">
-        <v>62616</v>
+        <v>63589</v>
       </c>
       <c r="H37" s="1">
-        <v>63589</v>
+        <v>64551</v>
       </c>
       <c r="I37" s="1">
-        <v>64551</v>
-      </c>
-      <c r="J37" s="1">
         <v>65002</v>
       </c>
-      <c r="K37" s="3">
+      <c r="J37" s="3">
         <f t="shared" si="0"/>
         <v>62399.111111111109</v>
       </c>
-      <c r="L37" s="2">
-        <f t="shared" si="1"/>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
         <v>9.668933263591889E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>14369</v>
       </c>
       <c r="B38" s="1">
-        <v>14369</v>
-      </c>
-      <c r="C38" s="1">
         <v>14899</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <v>15251</v>
       </c>
+      <c r="D38" s="1">
+        <v>15315</v>
+      </c>
       <c r="E38" s="1">
-        <v>15315</v>
+        <v>15008</v>
       </c>
       <c r="F38" s="1">
-        <v>15008</v>
+        <v>15271</v>
       </c>
       <c r="G38" s="1">
-        <v>15271</v>
+        <v>15350</v>
       </c>
       <c r="H38" s="1">
-        <v>15350</v>
+        <v>15644</v>
       </c>
       <c r="I38" s="1">
-        <v>15644</v>
-      </c>
-      <c r="J38" s="1">
         <v>15803</v>
       </c>
-      <c r="K38" s="3">
+      <c r="J38" s="3">
         <f t="shared" si="0"/>
         <v>15212.222222222223</v>
       </c>
-      <c r="L38" s="2">
-        <f t="shared" si="1"/>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
         <v>9.0742264127064487E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>47</v>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>6374</v>
       </c>
       <c r="B39" s="1">
-        <v>6374</v>
-      </c>
-      <c r="C39" s="1">
         <v>6360</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>6107</v>
       </c>
+      <c r="D39" s="1">
+        <v>6050</v>
+      </c>
       <c r="E39" s="1">
-        <v>6050</v>
+        <v>6114</v>
       </c>
       <c r="F39" s="1">
-        <v>6114</v>
+        <v>6122</v>
       </c>
       <c r="G39" s="1">
-        <v>6122</v>
+        <v>6049</v>
       </c>
       <c r="H39" s="1">
-        <v>6049</v>
+        <v>6113</v>
       </c>
       <c r="I39" s="1">
-        <v>6113</v>
-      </c>
-      <c r="J39" s="1">
         <v>6197</v>
       </c>
-      <c r="K39" s="3">
+      <c r="J39" s="3">
         <f t="shared" si="0"/>
         <v>6165.1111111111113</v>
       </c>
-      <c r="L39" s="2">
-        <f t="shared" si="1"/>
+      <c r="K39" s="2">
+        <f t="shared" si="2"/>
         <v>-2.8562207519767631E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>48</v>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>61032</v>
       </c>
       <c r="B40" s="1">
-        <v>61032</v>
-      </c>
-      <c r="C40" s="1">
         <v>62373</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <v>63469</v>
       </c>
+      <c r="D40" s="1">
+        <v>63705</v>
+      </c>
       <c r="E40" s="1">
-        <v>63705</v>
+        <v>64129</v>
       </c>
       <c r="F40" s="1">
-        <v>64129</v>
+        <v>63848</v>
       </c>
       <c r="G40" s="1">
-        <v>63848</v>
+        <v>63990</v>
       </c>
       <c r="H40" s="1">
-        <v>63990</v>
+        <v>64878</v>
       </c>
       <c r="I40" s="1">
-        <v>64878</v>
-      </c>
-      <c r="J40" s="1">
         <v>65811</v>
       </c>
-      <c r="K40" s="3">
+      <c r="J40" s="3">
         <f t="shared" si="0"/>
         <v>63692.777777777781</v>
       </c>
-      <c r="L40" s="2">
-        <f t="shared" si="1"/>
+      <c r="K40" s="2">
+        <f t="shared" si="2"/>
         <v>7.2617039704608657E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>49</v>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5958</v>
       </c>
       <c r="B41" s="1">
-        <v>5958</v>
-      </c>
-      <c r="C41" s="1">
         <v>6284</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <v>6269</v>
       </c>
+      <c r="D41" s="1">
+        <v>6548</v>
+      </c>
       <c r="E41" s="1">
-        <v>6548</v>
+        <v>6510</v>
       </c>
       <c r="F41" s="1">
-        <v>6510</v>
+        <v>6204</v>
       </c>
       <c r="G41" s="1">
-        <v>6204</v>
+        <v>6769</v>
       </c>
       <c r="H41" s="1">
-        <v>6769</v>
+        <v>6783</v>
       </c>
       <c r="I41" s="1">
-        <v>6783</v>
-      </c>
-      <c r="J41" s="1">
         <v>6881</v>
       </c>
-      <c r="K41" s="3">
+      <c r="J41" s="3">
         <f t="shared" si="0"/>
         <v>6467.333333333333</v>
       </c>
-      <c r="L41" s="2">
-        <f t="shared" si="1"/>
+      <c r="K41" s="2">
+        <f t="shared" si="2"/>
         <v>0.13413748001743933</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>50</v>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>14289</v>
       </c>
       <c r="B42" s="1">
-        <v>14289</v>
-      </c>
-      <c r="C42" s="1">
         <v>14759</v>
       </c>
-      <c r="D42">
+      <c r="C42">
         <v>14918</v>
       </c>
+      <c r="D42" s="1">
+        <v>15013</v>
+      </c>
       <c r="E42" s="1">
-        <v>15013</v>
+        <v>15186</v>
       </c>
       <c r="F42" s="1">
-        <v>15186</v>
+        <v>15115</v>
       </c>
       <c r="G42" s="1">
-        <v>15115</v>
+        <v>15414</v>
       </c>
       <c r="H42" s="1">
-        <v>15414</v>
+        <v>15519</v>
       </c>
       <c r="I42" s="1">
-        <v>15519</v>
-      </c>
-      <c r="J42" s="1">
         <v>15841</v>
       </c>
-      <c r="K42" s="3">
+      <c r="J42" s="3">
         <f t="shared" si="0"/>
         <v>15117.111111111111</v>
       </c>
-      <c r="L42" s="2">
-        <f t="shared" si="1"/>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
         <v>9.7973612776971156E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>51</v>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4516</v>
       </c>
       <c r="B43" s="1">
-        <v>4516</v>
-      </c>
-      <c r="C43" s="1">
         <v>4526</v>
       </c>
-      <c r="D43">
+      <c r="C43">
         <v>4723</v>
       </c>
+      <c r="D43" s="1">
+        <v>4556</v>
+      </c>
       <c r="E43" s="1">
-        <v>4556</v>
+        <v>4649</v>
       </c>
       <c r="F43" s="1">
-        <v>4649</v>
+        <v>4632</v>
       </c>
       <c r="G43" s="1">
+        <v>4689</v>
+      </c>
+      <c r="H43" s="1">
         <v>4632</v>
       </c>
-      <c r="H43" s="1">
-        <v>4689</v>
-      </c>
       <c r="I43" s="1">
-        <v>4632</v>
-      </c>
-      <c r="J43" s="1">
         <v>4782</v>
       </c>
-      <c r="K43" s="3">
-        <f t="shared" ref="K43:K52" si="2">(B43+C43+D43+E43+F43+G43+H43+I42+J42)/9</f>
+      <c r="J43" s="3">
+        <f t="shared" ref="J43:J52" si="3">(A43+B43+C43+D43+E43+F43+G43+H42+I42)/9</f>
         <v>7072.333333333333</v>
       </c>
-      <c r="L43" s="2">
-        <f t="shared" si="1"/>
+      <c r="K43" s="2">
+        <f t="shared" si="2"/>
         <v>5.562526139690506E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>52</v>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>22355</v>
       </c>
       <c r="B44" s="1">
-        <v>22355</v>
-      </c>
-      <c r="C44" s="1">
         <v>23075</v>
       </c>
-      <c r="D44">
+      <c r="C44">
         <v>23313</v>
       </c>
+      <c r="D44" s="1">
+        <v>23588</v>
+      </c>
       <c r="E44" s="1">
-        <v>23588</v>
+        <v>23760</v>
       </c>
       <c r="F44" s="1">
-        <v>23760</v>
+        <v>23667</v>
       </c>
       <c r="G44" s="1">
-        <v>23667</v>
+        <v>23849</v>
       </c>
       <c r="H44" s="1">
-        <v>23849</v>
+        <v>24002</v>
       </c>
       <c r="I44" s="1">
-        <v>24002</v>
-      </c>
-      <c r="J44" s="1">
         <v>24327</v>
       </c>
-      <c r="K44" s="3">
+      <c r="J44" s="3">
+        <f t="shared" si="3"/>
+        <v>19224.555555555555</v>
+      </c>
+      <c r="K44" s="2">
         <f t="shared" si="2"/>
-        <v>19224.555555555555</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="1"/>
         <v>8.1062194269741442E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>53</v>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>75001</v>
       </c>
       <c r="B45" s="1">
-        <v>75001</v>
-      </c>
-      <c r="C45" s="1">
         <v>76940</v>
       </c>
-      <c r="D45">
+      <c r="C45">
         <v>79347</v>
       </c>
+      <c r="D45" s="1">
+        <v>77152</v>
+      </c>
       <c r="E45" s="1">
-        <v>77152</v>
+        <v>80577</v>
       </c>
       <c r="F45" s="1">
-        <v>80577</v>
+        <v>79576</v>
       </c>
       <c r="G45" s="1">
-        <v>79576</v>
+        <v>80929</v>
       </c>
       <c r="H45" s="1">
-        <v>80929</v>
+        <v>83245</v>
       </c>
       <c r="I45" s="1">
-        <v>83245</v>
-      </c>
-      <c r="J45" s="1">
         <v>84056</v>
       </c>
-      <c r="K45" s="3">
+      <c r="J45" s="3">
+        <f t="shared" si="3"/>
+        <v>66427.888888888891</v>
+      </c>
+      <c r="K45" s="2">
         <f t="shared" si="2"/>
-        <v>66427.888888888891</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="1"/>
         <v>0.10772580184638812</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>54</v>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4922</v>
       </c>
       <c r="B46" s="1">
-        <v>4922</v>
-      </c>
-      <c r="C46" s="1">
         <v>5131</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>5298</v>
       </c>
+      <c r="D46" s="1">
+        <v>5292</v>
+      </c>
       <c r="E46" s="1">
-        <v>5292</v>
+        <v>5267</v>
       </c>
       <c r="F46" s="1">
-        <v>5267</v>
+        <v>5330</v>
       </c>
       <c r="G46" s="1">
-        <v>5330</v>
+        <v>5423</v>
       </c>
       <c r="H46" s="1">
-        <v>5423</v>
+        <v>5426</v>
       </c>
       <c r="I46" s="1">
-        <v>5426</v>
-      </c>
-      <c r="J46" s="1">
         <v>5581</v>
       </c>
-      <c r="K46" s="3">
+      <c r="J46" s="3">
+        <f t="shared" si="3"/>
+        <v>22662.666666666668</v>
+      </c>
+      <c r="K46" s="2">
         <f t="shared" si="2"/>
-        <v>22662.666666666668</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="1"/>
         <v>0.11807919727647374</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>55</v>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>23540</v>
       </c>
       <c r="B47" s="1">
-        <v>23540</v>
-      </c>
-      <c r="C47" s="1">
         <v>24782</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>24258</v>
       </c>
+      <c r="D47" s="1">
+        <v>25489</v>
+      </c>
       <c r="E47" s="1">
-        <v>25489</v>
+        <v>25626</v>
       </c>
       <c r="F47" s="1">
-        <v>25626</v>
+        <v>26232</v>
       </c>
       <c r="G47" s="1">
-        <v>26232</v>
+        <v>26648</v>
       </c>
       <c r="H47" s="1">
-        <v>26648</v>
+        <v>26797</v>
       </c>
       <c r="I47" s="1">
-        <v>26797</v>
-      </c>
-      <c r="J47" s="1">
         <v>27078</v>
       </c>
-      <c r="K47" s="3">
+      <c r="J47" s="3">
+        <f t="shared" si="3"/>
+        <v>20842.444444444445</v>
+      </c>
+      <c r="K47" s="2">
         <f t="shared" si="2"/>
-        <v>20842.444444444445</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="1"/>
         <v>0.13065957603958933</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>56</v>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2113</v>
       </c>
       <c r="B48" s="1">
-        <v>2113</v>
-      </c>
-      <c r="C48" s="1">
         <v>2245</v>
       </c>
-      <c r="D48">
+      <c r="C48">
         <v>2238</v>
       </c>
+      <c r="D48" s="1">
+        <v>2232</v>
+      </c>
       <c r="E48" s="1">
-        <v>2232</v>
+        <v>2190</v>
       </c>
       <c r="F48" s="1">
-        <v>2190</v>
+        <v>2292</v>
       </c>
       <c r="G48" s="1">
-        <v>2292</v>
+        <v>2368</v>
       </c>
       <c r="H48" s="1">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="I48" s="1">
-        <v>2367</v>
-      </c>
-      <c r="J48" s="1">
         <v>2307</v>
       </c>
-      <c r="K48" s="3">
+      <c r="J48" s="3">
+        <f t="shared" si="3"/>
+        <v>7728.1111111111113</v>
+      </c>
+      <c r="K48" s="2">
         <f t="shared" si="2"/>
-        <v>7728.1111111111113</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="1"/>
         <v>8.4091894234937153E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>57</v>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>11733</v>
       </c>
       <c r="B49" s="1">
-        <v>11733</v>
-      </c>
-      <c r="C49" s="1">
         <v>12481</v>
       </c>
-      <c r="D49">
+      <c r="C49">
         <v>12190</v>
       </c>
+      <c r="D49" s="1">
+        <v>12081</v>
+      </c>
       <c r="E49" s="1">
-        <v>12081</v>
+        <v>11891</v>
       </c>
       <c r="F49" s="1">
-        <v>11891</v>
+        <v>12331</v>
       </c>
       <c r="G49" s="1">
-        <v>12331</v>
+        <v>12524</v>
       </c>
       <c r="H49" s="1">
-        <v>12524</v>
+        <v>12648</v>
       </c>
       <c r="I49" s="1">
-        <v>12648</v>
-      </c>
-      <c r="J49" s="1">
         <v>12924</v>
       </c>
-      <c r="K49" s="3">
+      <c r="J49" s="3">
+        <f t="shared" si="3"/>
+        <v>9989.4444444444453</v>
+      </c>
+      <c r="K49" s="2">
         <f t="shared" si="2"/>
-        <v>9989.4444444444453</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="1"/>
         <v>9.2154131847725168E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>58</v>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>17804</v>
       </c>
       <c r="B50" s="1">
-        <v>17804</v>
-      </c>
-      <c r="C50" s="1">
         <v>18031</v>
       </c>
-      <c r="D50">
+      <c r="C50">
         <v>18068</v>
       </c>
+      <c r="D50" s="1">
+        <v>17388</v>
+      </c>
       <c r="E50" s="1">
-        <v>17388</v>
+        <v>17355</v>
       </c>
       <c r="F50" s="1">
-        <v>17355</v>
+        <v>17220</v>
       </c>
       <c r="G50" s="1">
-        <v>17220</v>
+        <v>17103</v>
       </c>
       <c r="H50" s="1">
-        <v>17103</v>
+        <v>17081</v>
       </c>
       <c r="I50" s="1">
-        <v>17081</v>
-      </c>
-      <c r="J50" s="1">
         <v>17229</v>
       </c>
-      <c r="K50" s="3">
+      <c r="J50" s="3">
+        <f t="shared" si="3"/>
+        <v>16504.555555555555</v>
+      </c>
+      <c r="K50" s="2">
         <f t="shared" si="2"/>
-        <v>16504.555555555555</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="1"/>
         <v>-3.3373962505078646E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>59</v>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>8249</v>
       </c>
       <c r="B51" s="1">
-        <v>8249</v>
-      </c>
-      <c r="C51" s="1">
         <v>8667</v>
       </c>
-      <c r="D51">
+      <c r="C51">
         <v>8858</v>
       </c>
+      <c r="D51" s="1">
+        <v>8733</v>
+      </c>
       <c r="E51" s="1">
-        <v>8733</v>
+        <v>8780</v>
       </c>
       <c r="F51" s="1">
-        <v>8780</v>
+        <v>8969</v>
       </c>
       <c r="G51" s="1">
-        <v>8969</v>
+        <v>8997</v>
       </c>
       <c r="H51" s="1">
-        <v>8997</v>
+        <v>9129</v>
       </c>
       <c r="I51" s="1">
-        <v>9129</v>
-      </c>
-      <c r="J51" s="1">
         <v>9226</v>
       </c>
-      <c r="K51" s="3">
+      <c r="J51" s="3">
+        <f t="shared" si="3"/>
+        <v>10618.111111111111</v>
+      </c>
+      <c r="K51" s="2">
         <f t="shared" si="2"/>
-        <v>10618.111111111111</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="1"/>
         <v>0.10589637979622805</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>60</v>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1922</v>
       </c>
       <c r="B52" s="1">
-        <v>1922</v>
-      </c>
-      <c r="C52" s="1">
         <v>1958</v>
       </c>
-      <c r="D52">
+      <c r="C52">
         <v>1950</v>
       </c>
+      <c r="D52" s="1">
+        <v>1919</v>
+      </c>
       <c r="E52" s="1">
-        <v>1919</v>
+        <v>1962</v>
       </c>
       <c r="F52" s="1">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="G52" s="1">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="H52" s="1">
-        <v>1970</v>
+        <v>1939</v>
       </c>
       <c r="I52" s="1">
-        <v>1939</v>
-      </c>
-      <c r="J52" s="1">
         <v>1989</v>
       </c>
-      <c r="K52" s="3">
+      <c r="J52" s="3">
+        <f t="shared" si="3"/>
+        <v>3555.5555555555557</v>
+      </c>
+      <c r="K52" s="2">
         <f t="shared" si="2"/>
-        <v>3555.5555555555557</v>
-      </c>
-      <c r="L52" s="2">
-        <f t="shared" si="1"/>
         <v>3.3685268979386625E-2</v>
       </c>
     </row>
@@ -2688,208 +2376,208 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!B2:J2</xm:f>
-              <xm:sqref>M2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B3:J3</xm:f>
-              <xm:sqref>M3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B4:J4</xm:f>
-              <xm:sqref>M4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B5:J5</xm:f>
-              <xm:sqref>M5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B6:J6</xm:f>
-              <xm:sqref>M6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B7:J7</xm:f>
-              <xm:sqref>M7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B8:J8</xm:f>
-              <xm:sqref>M8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B9:J9</xm:f>
-              <xm:sqref>M9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B10:J10</xm:f>
-              <xm:sqref>M10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B11:J11</xm:f>
-              <xm:sqref>M11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B12:J12</xm:f>
-              <xm:sqref>M12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B13:J13</xm:f>
-              <xm:sqref>M13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B14:J14</xm:f>
-              <xm:sqref>M14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B15:J15</xm:f>
-              <xm:sqref>M15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B16:J16</xm:f>
-              <xm:sqref>M16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B17:J17</xm:f>
-              <xm:sqref>M17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B18:J18</xm:f>
-              <xm:sqref>M18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B19:J19</xm:f>
-              <xm:sqref>M19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B20:J20</xm:f>
-              <xm:sqref>M20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B21:J21</xm:f>
-              <xm:sqref>M21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B22:J22</xm:f>
-              <xm:sqref>M22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B23:J23</xm:f>
-              <xm:sqref>M23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B24:J24</xm:f>
-              <xm:sqref>M24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B25:J25</xm:f>
-              <xm:sqref>M25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B26:J26</xm:f>
-              <xm:sqref>M26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B27:J27</xm:f>
-              <xm:sqref>M27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B28:J28</xm:f>
-              <xm:sqref>M28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B29:J29</xm:f>
-              <xm:sqref>M29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B30:J30</xm:f>
-              <xm:sqref>M30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B31:J31</xm:f>
-              <xm:sqref>M31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B32:J32</xm:f>
-              <xm:sqref>M32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B33:J33</xm:f>
-              <xm:sqref>M33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B34:J34</xm:f>
-              <xm:sqref>M34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B35:J35</xm:f>
-              <xm:sqref>M35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B36:J36</xm:f>
-              <xm:sqref>M36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B37:J37</xm:f>
-              <xm:sqref>M37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B38:J38</xm:f>
-              <xm:sqref>M38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B39:J39</xm:f>
-              <xm:sqref>M39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B40:J40</xm:f>
-              <xm:sqref>M40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B41:J41</xm:f>
-              <xm:sqref>M41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B42:J42</xm:f>
-              <xm:sqref>M42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B43:J43</xm:f>
-              <xm:sqref>M43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B44:J44</xm:f>
-              <xm:sqref>M44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B45:J45</xm:f>
-              <xm:sqref>M45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B46:J46</xm:f>
-              <xm:sqref>M46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B47:J47</xm:f>
-              <xm:sqref>M47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B48:J48</xm:f>
-              <xm:sqref>M48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B49:J49</xm:f>
-              <xm:sqref>M49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B50:J50</xm:f>
-              <xm:sqref>M50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B51:J51</xm:f>
-              <xm:sqref>M51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B52:J52</xm:f>
-              <xm:sqref>M52</xm:sqref>
+              <xm:f>Sheet1!A2:I2</xm:f>
+              <xm:sqref>L2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A3:I3</xm:f>
+              <xm:sqref>L3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A4:I4</xm:f>
+              <xm:sqref>L4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A5:I5</xm:f>
+              <xm:sqref>L5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A6:I6</xm:f>
+              <xm:sqref>L6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A7:I7</xm:f>
+              <xm:sqref>L7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A8:I8</xm:f>
+              <xm:sqref>L8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A9:I9</xm:f>
+              <xm:sqref>L9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A10:I10</xm:f>
+              <xm:sqref>L10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A11:I11</xm:f>
+              <xm:sqref>L11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A12:I12</xm:f>
+              <xm:sqref>L12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A13:I13</xm:f>
+              <xm:sqref>L13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A14:I14</xm:f>
+              <xm:sqref>L14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A15:I15</xm:f>
+              <xm:sqref>L15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A16:I16</xm:f>
+              <xm:sqref>L16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A17:I17</xm:f>
+              <xm:sqref>L17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A18:I18</xm:f>
+              <xm:sqref>L18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A19:I19</xm:f>
+              <xm:sqref>L19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A20:I20</xm:f>
+              <xm:sqref>L20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A21:I21</xm:f>
+              <xm:sqref>L21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A22:I22</xm:f>
+              <xm:sqref>L22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A23:I23</xm:f>
+              <xm:sqref>L23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A24:I24</xm:f>
+              <xm:sqref>L24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A25:I25</xm:f>
+              <xm:sqref>L25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A26:I26</xm:f>
+              <xm:sqref>L26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A27:I27</xm:f>
+              <xm:sqref>L27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A28:I28</xm:f>
+              <xm:sqref>L28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A29:I29</xm:f>
+              <xm:sqref>L29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A30:I30</xm:f>
+              <xm:sqref>L30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A31:I31</xm:f>
+              <xm:sqref>L31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A32:I32</xm:f>
+              <xm:sqref>L32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A33:I33</xm:f>
+              <xm:sqref>L33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A34:I34</xm:f>
+              <xm:sqref>L34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A35:I35</xm:f>
+              <xm:sqref>L35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A36:I36</xm:f>
+              <xm:sqref>L36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A37:I37</xm:f>
+              <xm:sqref>L37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A38:I38</xm:f>
+              <xm:sqref>L38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A39:I39</xm:f>
+              <xm:sqref>L39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A40:I40</xm:f>
+              <xm:sqref>L40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A41:I41</xm:f>
+              <xm:sqref>L41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A42:I42</xm:f>
+              <xm:sqref>L42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A43:I43</xm:f>
+              <xm:sqref>L43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A44:I44</xm:f>
+              <xm:sqref>L44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A45:I45</xm:f>
+              <xm:sqref>L45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A46:I46</xm:f>
+              <xm:sqref>L46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A47:I47</xm:f>
+              <xm:sqref>L47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A48:I48</xm:f>
+              <xm:sqref>L48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A49:I49</xm:f>
+              <xm:sqref>L49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A50:I50</xm:f>
+              <xm:sqref>L50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A51:I51</xm:f>
+              <xm:sqref>L51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!A52:I52</xm:f>
+              <xm:sqref>L52</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
